--- a/assets/resources/datatables/Enemy.xlsx
+++ b/assets/resources/datatables/Enemy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D7C25C-3D10-4B25-B54F-A736CE9232A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3F18C9-C78C-4192-B32D-F32B8F4E98B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="2430" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,46 @@
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丧尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,15 +409,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,57 +428,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>1005</v>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>6001</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/resources/datatables/Enemy.xlsx
+++ b/assets/resources/datatables/Enemy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3F18C9-C78C-4192-B32D-F32B8F4E98B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942F2A91-5B4A-4BAC-9C17-98896CC70AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="3195" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -502,7 +502,7 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>0.25</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
